--- a/medicine/Enfance/Groupement_d'intérêt_public_Enfance_en_danger/Groupement_d'intérêt_public_Enfance_en_danger.xlsx
+++ b/medicine/Enfance/Groupement_d'intérêt_public_Enfance_en_danger/Groupement_d'intérêt_public_Enfance_en_danger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupement_d%27int%C3%A9r%C3%AAt_public_Enfance_en_danger</t>
+          <t>Groupement_d'intérêt_public_Enfance_en_danger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupement d'intérêt public Enfance en danger ou GIPED est un groupement d'intérêt public lié à la protection de l'enfance en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Groupement_d%27int%C3%A9r%C3%AAt_public_Enfance_en_danger</t>
+          <t>Groupement_d'intérêt_public_Enfance_en_danger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conseil d'administration du GIP est constitué de représentants de l'État (dix directions centrales de ministères), quinze représentants des départements et cinq des associations de protection de l’enfance.
 Il regroupe deux services : le Service national d'accueil téléphonique pour l'enfance en danger (Snatem) créé par la loi du 10 juillet 1989 et l’Observatoire national de l'enfance en danger (Oned) créé par la loi du 2 janvier 2004.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Groupement_d%27int%C3%A9r%C3%AAt_public_Enfance_en_danger</t>
+          <t>Groupement_d'intérêt_public_Enfance_en_danger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Anciens dirigeants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2018 à 2022 : Violaine Blain
 2009 à 2015 : Marie-Paule Martin-Blachais
